--- a/스마트스토어 상품코드.xlsx
+++ b/스마트스토어 상품코드.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungmin/Documents/review_crawling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CAFA1-B9F6-DF4D-AE13-C098A42C546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35402FB-A516-524B-B5C7-0A2C4FC4C54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1980" windowWidth="34560" windowHeight="21100" xr2:uid="{C45FD9B7-B2D1-48FB-A825-1F9EFA767BFF}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="21100" xr2:uid="{C45FD9B7-B2D1-48FB-A825-1F9EFA767BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +56,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD6D6DD"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -82,11 +87,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,60 +411,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C52C38-FA1F-44E6-86BF-962263A620D8}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>6626482241</v>
+        <v>10332259813</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>6626491508</v>
+      <c r="B1" s="1">
+        <v>85712468</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>6342362147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>6626493419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>6626495290</v>
-      </c>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD67D4-1F4A-7846-86D3-E6568B471525}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/스마트스토어 상품코드.xlsx
+++ b/스마트스토어 상품코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungmin/Documents/review_crawling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35402FB-A516-524B-B5C7-0A2C4FC4C54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FBA9CB-CACA-E442-89EC-36A0284869BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="21100" xr2:uid="{C45FD9B7-B2D1-48FB-A825-1F9EFA767BFF}"/>
+    <workbookView xWindow="4340" yWindow="3100" windowWidth="29240" windowHeight="18080" xr2:uid="{C45FD9B7-B2D1-48FB-A825-1F9EFA767BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +68,21 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,12 +101,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,9 +119,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,11 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C52C38-FA1F-44E6-86BF-962263A620D8}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -424,71 +451,71 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
-        <v>10332259813</v>
+        <v>9627336845</v>
       </c>
       <c r="B1" s="1">
-        <v>85712468</v>
+        <v>216480</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
